--- a/ProductionPivot_Unsolved.xlsx
+++ b/ProductionPivot_Unsolved.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kealaschultz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kealaschultz/Documents/GitHub/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229E0AA1-A0BE-584D-AE62-62BF00EF0DE4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631E1EF3-89CD-7D4B-B904-45BAD96E1A47}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product List" sheetId="1" r:id="rId1"/>
     <sheet name="Orders" sheetId="2" r:id="rId2"/>
     <sheet name="Pivot - Total Cost" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -135,6 +137,9 @@
   </si>
   <si>
     <t>Sum of Shipping Price</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -516,7 +521,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3B613584-5A88-B04B-A22D-76AD2A05F018}" name="PivotTable6" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3B613584-5A88-B04B-A22D-76AD2A05F018}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F3:H32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -575,7 +580,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
@@ -698,7 +703,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C8D1E57-FC95-BB45-B970-23AC966E94A2}" name="PivotTable2" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C8D1E57-FC95-BB45-B970-23AC966E94A2}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -1985,7 +1990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9DFE91-E30F-9143-B295-BD6E971EACED}">
   <dimension ref="A3:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -2511,4 +2516,36 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4F0B5C-B6E0-F040-9566-5FEA20F6681B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69ACA8B-C6DC-BA48-866F-7253D2CCF152}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>